--- a/Test/MultiPSO/Explore50Exploit200/ALLCONError_75.xlsx
+++ b/Test/MultiPSO/Explore50Exploit200/ALLCONError_75.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.008831813235280537</v>
+        <v>0.01190966238764774</v>
       </c>
       <c r="B1" t="n">
-        <v>0.005997406639911211</v>
+        <v>0.003321032980563341</v>
       </c>
       <c r="C1" t="n">
-        <v>0.01017164395704317</v>
+        <v>0.001472383768846055</v>
       </c>
       <c r="D1" t="n">
-        <v>0.004817096141433269</v>
+        <v>0.003696059500857123</v>
       </c>
       <c r="E1" t="n">
-        <v>0.008459796436179027</v>
+        <v>0.005954683795785583</v>
       </c>
       <c r="F1" t="n">
-        <v>0.003298139129692615</v>
+        <v>0.00330015465047595</v>
       </c>
       <c r="G1" t="n">
-        <v>0.02105692256906748</v>
+        <v>0.002936644610198622</v>
       </c>
       <c r="H1" t="n">
-        <v>0.006088377029310266</v>
+        <v>0.003929620147405404</v>
       </c>
       <c r="I1" t="n">
-        <v>0.005630886386328519</v>
+        <v>0.001589849077095835</v>
       </c>
       <c r="J1" t="n">
-        <v>0.02497358621589873</v>
+        <v>0.02571569784148824</v>
       </c>
     </row>
   </sheetData>
